--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -974,7 +974,7 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1144,7 +1144,7 @@
         <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1326,7 +1326,7 @@
         <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1493,7 +1493,7 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="N6" t="n">
         <v>1.04</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.82</v>
@@ -1684,13 +1684,13 @@
         <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S7" t="n">
         <v>1.28</v>
@@ -1699,43 +1699,43 @@
         <v>3.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>50</v>
@@ -1750,19 +1750,19 @@
         <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO7" t="n">
         <v>6.1</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1777,7 +1777,7 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
@@ -1789,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -1798,7 +1798,7 @@
         <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2684,7 +2684,7 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU13" t="n">
         <v>8.5</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
@@ -4322,7 +4322,7 @@
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -759,7 +759,7 @@
         <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -783,7 +783,7 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T2" t="n">
         <v>2.25</v>
@@ -965,16 +965,16 @@
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1144,7 +1144,7 @@
         <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1326,7 +1326,7 @@
         <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1684,7 +1684,7 @@
         <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="Q7" t="n">
         <v>1.52</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2684,7 +2684,7 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>8.5</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
@@ -4322,7 +4322,7 @@
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -759,7 +759,7 @@
         <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -783,7 +783,7 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
         <v>2.25</v>
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -965,10 +965,10 @@
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M6" t="n">
         <v>10.9</v>
@@ -1520,7 +1520,7 @@
         <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
@@ -1529,10 +1529,10 @@
         <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
         <v>18</v>
@@ -1544,19 +1544,19 @@
         <v>11.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
         <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>10</v>
@@ -1592,16 +1592,16 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
         <v>14.5</v>
@@ -1693,10 +1693,10 @@
         <v>2.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -2767,13 +2767,13 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>8.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
         <v>3.25</v>
@@ -2949,13 +2949,13 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>3.25</v>
@@ -3131,16 +3131,16 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q15" t="n">
         <v>2.4</v>
@@ -3313,13 +3313,13 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
         <v>3.25</v>
@@ -3507,10 +3507,10 @@
         <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
         <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>10.9</v>
@@ -1520,34 +1520,34 @@
         <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
         <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>50</v>
@@ -1580,28 +1580,28 @@
         <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>50</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
         <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX6" t="n">
         <v>14.5</v>
@@ -1610,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA6" t="n">
         <v>90</v>
@@ -1660,16 +1660,16 @@
         <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1.82</v>
       </c>
       <c r="K7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L7" t="n">
         <v>6.2</v>
@@ -1693,10 +1693,10 @@
         <v>2.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T7" t="n">
-        <v>3.54</v>
+        <v>3.46</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1714,7 +1714,7 @@
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>10.5</v>
@@ -1723,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>9.5</v>
@@ -1732,10 +1732,10 @@
         <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>50</v>
@@ -1747,7 +1747,7 @@
         <v>175</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1759,7 +1759,7 @@
         <v>3.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>14.5</v>
@@ -1774,10 +1774,10 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
@@ -1789,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -2767,13 +2767,13 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>8.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
         <v>3.25</v>
@@ -2949,13 +2949,13 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
         <v>3.25</v>
@@ -3131,16 +3131,16 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
         <v>2.4</v>
@@ -3313,13 +3313,13 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1493,22 +1493,22 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
         <v>10.9</v>
       </c>
-      <c r="N6" t="n">
-        <v>1.04</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
         <v>1.39</v>
@@ -1517,13 +1517,13 @@
         <v>2.57</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
         <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1535,13 +1535,13 @@
         <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>6.6</v>
@@ -1577,7 +1577,7 @@
         <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19.5</v>
@@ -1607,7 +1607,7 @@
         <v>14.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -971,22 +971,22 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -1001,22 +1001,22 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1058,16 +1058,16 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1341,16 +1341,16 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
@@ -1374,28 +1374,28 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1413,7 +1413,7 @@
         <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1422,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1484,31 +1484,31 @@
         <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
         <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>10.9</v>
       </c>
       <c r="N6" t="n">
-        <v>10.9</v>
+        <v>1.04</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>1.39</v>
@@ -1517,43 +1517,43 @@
         <v>2.57</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD6" t="n">
         <v>6.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
         <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1577,25 +1577,25 @@
         <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>50</v>
       </c>
       <c r="AR6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
@@ -1607,13 +1607,13 @@
         <v>14.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4053,10 +4053,10 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4074,22 +4074,22 @@
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
         <v>11</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
       <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
         <v>23</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>21</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
         <v>5.5</v>
@@ -4101,7 +4101,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -4110,10 +4110,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -1329,10 +1329,10 @@
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1344,7 +1344,7 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1380,22 +1380,22 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1410,10 +1410,10 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1431,7 +1431,7 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
         <v>3.75</v>
@@ -3558,7 +3558,7 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>12</v>
@@ -3567,7 +3567,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
@@ -3609,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -4760,13 +4760,13 @@
         <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -4787,10 +4787,10 @@
         <v>2.02</v>
       </c>
       <c r="S24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
@@ -4799,13 +4799,13 @@
         <v>1.95</v>
       </c>
       <c r="W24" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z24" t="n">
         <v>12.5</v>
@@ -4841,7 +4841,7 @@
         <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
         <v>45</v>
@@ -4853,22 +4853,22 @@
         <v>3.55</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS24" t="n">
         <v>200</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AU24" t="n">
         <v>7.5</v>
@@ -4877,10 +4877,10 @@
         <v>65</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
         <v>3.5</v>
@@ -2072,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2087,13 +2087,13 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>34</v>
@@ -2105,16 +2105,16 @@
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>101</v>
@@ -2150,7 +2150,7 @@
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
@@ -3349,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -3385,7 +3385,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -3394,7 +3394,7 @@
         <v>251</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
@@ -3421,7 +3421,7 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>17</v>
@@ -4754,19 +4754,19 @@
         <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K24" t="n">
         <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -4781,10 +4781,10 @@
         <v>3.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4796,16 +4796,16 @@
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.25</v>
       </c>
       <c r="Z24" t="n">
         <v>12.5</v>
@@ -4814,16 +4814,16 @@
         <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>65</v>
@@ -4832,22 +4832,22 @@
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="n">
         <v>45</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN24" t="n">
         <v>3.55</v>
@@ -4877,10 +4877,10 @@
         <v>65</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.52</v>
@@ -5157,55 +5157,55 @@
         <v>2.15</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF26" t="n">
         <v>110</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
         <v>50</v>
@@ -5214,43 +5214,43 @@
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS26" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT26" t="n">
         <v>2.12</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ26" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BA26" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1475,115 +1475,115 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>10.9</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>1.04</v>
+        <v>9.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>32</v>
       </c>
-      <c r="AK6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>28</v>
-      </c>
       <c r="AM6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR6" t="n">
         <v>75</v>
@@ -1592,31 +1592,31 @@
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1863,13 +1863,13 @@
         <v>10.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
         <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
         <v>1.9</v>
@@ -1896,10 +1896,10 @@
         <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="n">
         <v>37</v>
@@ -1908,7 +1908,7 @@
         <v>10.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1959,7 +1959,7 @@
         <v>2.72</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
@@ -1968,10 +1968,10 @@
         <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>35</v>
@@ -1980,7 +1980,7 @@
         <v>65</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -5306,13 +5306,13 @@
         <v>4.05</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K27" t="n">
         <v>1.93</v>
       </c>
       <c r="L27" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5345,7 +5345,7 @@
         <v>1.62</v>
       </c>
       <c r="W27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X27" t="n">
         <v>8.25</v>
@@ -5357,16 +5357,16 @@
         <v>17.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>18.5</v>
@@ -5375,7 +5375,7 @@
         <v>120</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
@@ -5390,52 +5390,52 @@
         <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>40</v>
       </c>
       <c r="AR27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
         <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV27" t="n">
         <v>90</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ27" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB27" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1487,10 +1487,10 @@
         <v>2.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1505,7 +1505,7 @@
         <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
         <v>1.83</v>
@@ -1523,28 +1523,28 @@
         <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1553,22 +1553,22 @@
         <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>400</v>
@@ -1580,43 +1580,43 @@
         <v>11.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU6" t="n">
         <v>6.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW6" t="n">
         <v>4.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
@@ -3131,10 +3131,10 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -3164,7 +3164,7 @@
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -3179,7 +3179,7 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -4960,7 +4960,7 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
@@ -4969,10 +4969,10 @@
         <v>2.07</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>1.6</v>
@@ -5008,7 +5008,7 @@
         <v>12.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -5026,7 +5026,7 @@
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
         <v>300</v>
@@ -5050,7 +5050,7 @@
         <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
         <v>6.8</v>
@@ -5062,13 +5062,13 @@
         <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY25" t="n">
         <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA25" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>9.65</v>
+        <v>8.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1526,13 +1526,13 @@
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>18</v>
@@ -1541,76 +1541,76 @@
         <v>27</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ6" t="n">
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="n">
         <v>100</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -3164,7 +3164,7 @@
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -3197,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -3313,16 +3313,16 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1478,13 +1478,13 @@
         <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1502,7 +1502,7 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.93</v>
@@ -1517,16 +1517,16 @@
         <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
@@ -1547,13 +1547,13 @@
         <v>6.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>16</v>
@@ -1565,13 +1565,13 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>35</v>
       </c>
       <c r="AM6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
         <v>4.2</v>
@@ -1595,13 +1595,13 @@
         <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>16.5</v>
@@ -1610,7 +1610,7 @@
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
         <v>100</v>
@@ -5136,7 +5136,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>5.65</v>
       </c>
       <c r="O26" t="n">
         <v>1.52</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1487,7 +1487,7 @@
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
         <v>3.55</v>
@@ -1502,7 +1502,7 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q6" t="n">
         <v>1.93</v>
@@ -1556,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
         <v>10.75</v>
@@ -1565,13 +1565,13 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>35</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
         <v>4.2</v>
@@ -1583,7 +1583,7 @@
         <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
         <v>65</v>
@@ -1592,7 +1592,7 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU6" t="n">
         <v>6.6</v>
@@ -1613,7 +1613,7 @@
         <v>75</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -1693,10 +1693,10 @@
         <v>2.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="T7" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -3161,10 +3161,10 @@
         <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -3179,16 +3179,16 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>8</v>
@@ -3197,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -3233,19 +3233,19 @@
         <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>
@@ -3254,7 +3254,7 @@
         <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3319,10 +3319,10 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>
@@ -3477,40 +3477,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3525,7 +3525,7 @@
         <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -3534,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3561,7 +3561,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -3579,10 +3579,10 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
@@ -3606,7 +3606,7 @@
         <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
@@ -4023,40 +4023,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.1</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4074,22 +4074,22 @@
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
         <v>5.5</v>
@@ -4101,7 +4101,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -4110,10 +4110,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK20" t="n">
         <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
@@ -4125,7 +4125,7 @@
         <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4134,7 +4134,7 @@
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4149,7 +4149,7 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
         <v>17</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
         <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -4599,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4611,10 +4611,10 @@
         <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
         <v>13</v>
@@ -4623,7 +4623,7 @@
         <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>29</v>
@@ -4632,19 +4632,19 @@
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -4653,7 +4653,7 @@
         <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
@@ -4698,10 +4698,10 @@
         <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>41</v>
@@ -4933,19 +4933,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
         <v>2.87</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L25" t="n">
         <v>3.4</v>
@@ -4957,16 +4957,16 @@
         <v>8.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S25" t="n">
         <v>1.34</v>
@@ -4975,16 +4975,16 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
@@ -4993,22 +4993,22 @@
         <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
         <v>8.25</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE25" t="n">
         <v>12.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -5026,7 +5026,7 @@
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM25" t="n">
         <v>300</v>
@@ -5035,10 +5035,10 @@
         <v>4.25</v>
       </c>
       <c r="AO25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
         <v>40</v>
@@ -5056,7 +5056,7 @@
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5068,7 +5068,7 @@
         <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA25" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1117,7 +1117,7 @@
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -1126,13 +1126,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1153,13 +1153,13 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1192,7 +1192,7 @@
         <v>6.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
@@ -1219,13 +1219,13 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1237,16 +1237,16 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -2591,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -3495,10 +3495,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -4044,7 +4044,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4053,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H26" t="n">
         <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>1.83</v>
@@ -5145,10 +5145,10 @@
         <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
         <v>1.55</v>
@@ -5163,16 +5163,16 @@
         <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="n">
         <v>32</v>
@@ -5193,34 +5193,34 @@
         <v>110</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI26" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="n">
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>90</v>
@@ -5241,7 +5241,7 @@
         <v>90</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1129,10 +1129,10 @@
         <v>2.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1484,25 +1484,25 @@
         <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.93</v>
@@ -1523,22 +1523,22 @@
         <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
@@ -1553,10 +1553,10 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>10.75</v>
@@ -1577,22 +1577,22 @@
         <v>4.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
         <v>6.6</v>
@@ -1604,16 +1604,16 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>75</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2585,22 +2585,22 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2621,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2633,10 +2633,10 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2693,13 +2693,13 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
@@ -3495,10 +3495,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3534,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3558,10 +3558,10 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3606,7 +3606,7 @@
         <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
@@ -4933,109 +4933,109 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="U25" t="n">
         <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB25" t="n">
         <v>24</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>6.9</v>
       </c>
       <c r="AE25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP25" t="n">
         <v>18</v>
@@ -5050,28 +5050,28 @@
         <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV25" t="n">
         <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ25" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA25" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB25" t="n">
         <v>250</v>
@@ -5127,7 +5127,7 @@
         <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L26" t="n">
         <v>3.35</v>
@@ -5136,40 +5136,40 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>37</v>
@@ -5181,25 +5181,25 @@
         <v>50</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>110</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
@@ -5214,13 +5214,13 @@
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>90</v>
@@ -5232,13 +5232,13 @@
         <v>450</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW26" t="n">
         <v>4.3</v>
@@ -5247,16 +5247,16 @@
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
         <v>75</v>
       </c>
       <c r="BA26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB26" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1502,7 +1502,7 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q6" t="n">
         <v>1.93</v>
@@ -1523,28 +1523,28 @@
         <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
@@ -1571,13 +1571,13 @@
         <v>35</v>
       </c>
       <c r="AM6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP6" t="n">
         <v>18</v>
@@ -1592,28 +1592,28 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW6" t="n">
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3319,10 +3319,10 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>
@@ -3352,10 +3352,10 @@
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3373,16 +3373,16 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
@@ -3495,10 +3495,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -4044,7 +4044,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4095,13 +4095,13 @@
         <v>5.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
@@ -4146,7 +4146,7 @@
         <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
@@ -4164,7 +4164,7 @@
         <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4936,10 +4936,10 @@
         <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
         <v>2.7</v>
@@ -4966,7 +4966,7 @@
         <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4984,7 +4984,7 @@
         <v>8.75</v>
       </c>
       <c r="X25" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
@@ -5002,25 +5002,25 @@
         <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
         <v>24</v>
@@ -5053,16 +5053,16 @@
         <v>2.92</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV25" t="n">
         <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY25" t="n">
         <v>22</v>
@@ -5136,7 +5136,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1293,58 +1293,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.44</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1353,13 +1353,13 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1368,13 +1368,13 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1389,28 +1389,28 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1425,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>101</v>
@@ -1434,7 +1434,7 @@
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.82</v>
       </c>
       <c r="K7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1684,13 +1684,13 @@
         <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
         <v>1.26</v>
@@ -1699,16 +1699,16 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
@@ -1717,16 +1717,16 @@
         <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
@@ -1747,7 +1747,7 @@
         <v>175</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1756,10 +1756,10 @@
         <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP7" t="n">
         <v>14.5</v>
@@ -1774,10 +1774,10 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
@@ -1789,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,52 +2245,52 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>15</v>
       </c>
       <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
         <v>41</v>
       </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2302,37 +2302,37 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR10" t="n">
         <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
@@ -2570,52 +2570,52 @@
         <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2624,16 +2624,16 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2645,7 +2645,7 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2657,13 +2657,13 @@
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN12" t="n">
         <v>4.33</v>
@@ -2681,10 +2681,10 @@
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2699,7 +2699,7 @@
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2797,19 +2797,19 @@
         <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
@@ -2818,7 +2818,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2827,10 +2827,10 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2839,7 +2839,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2851,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2860,7 +2860,7 @@
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
@@ -2890,7 +2890,7 @@
         <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -4044,7 +4044,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4235,10 +4235,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -4456,13 +4456,13 @@
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>5.5</v>
@@ -4474,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>15</v>
@@ -4489,7 +4489,7 @@
         <v>7.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP22" t="n">
         <v>41</v>
@@ -4498,7 +4498,7 @@
         <v>151</v>
       </c>
       <c r="AR22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS22" t="n">
         <v>501</v>
@@ -4513,7 +4513,7 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AX22" t="n">
         <v>8</v>
@@ -4584,7 +4584,7 @@
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -5300,19 +5300,19 @@
         <v>1.98</v>
       </c>
       <c r="H27" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="K27" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5327,43 +5327,43 @@
         <v>2.35</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
         <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T27" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="U27" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.62</v>
       </c>
       <c r="W27" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="X27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>17.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5375,46 +5375,46 @@
         <v>120</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS27" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
         <v>7.8</v>
@@ -5423,22 +5423,22 @@
         <v>90</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ27" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB27" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1478,10 +1478,10 @@
         <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.77</v>
@@ -1490,7 +1490,7 @@
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1523,22 +1523,22 @@
         <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
@@ -1553,10 +1553,10 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>10.75</v>
@@ -1565,13 +1565,13 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
         <v>4.15</v>
@@ -1580,40 +1580,40 @@
         <v>11.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -1693,10 +1693,10 @@
         <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2245,34 +2245,34 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
         <v>41</v>
       </c>
-      <c r="AB10" t="n">
-        <v>51</v>
-      </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2284,13 +2284,13 @@
         <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2302,43 +2302,43 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
         <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
@@ -2797,7 +2797,7 @@
         <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>9</v>
@@ -2818,7 +2818,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -3662,7 +3662,7 @@
         <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>4.1</v>
@@ -3677,10 +3677,10 @@
         <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -3695,19 +3695,19 @@
         <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
         <v>8.5</v>
@@ -3716,7 +3716,7 @@
         <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>21</v>
@@ -3734,10 +3734,10 @@
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -3758,31 +3758,31 @@
         <v>201</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
         <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="n">
         <v>5.5</v>
@@ -3791,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
@@ -4584,7 +4584,7 @@
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1329,10 +1329,10 @@
         <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1344,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1371,19 +1371,19 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1404,13 +1404,13 @@
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>
@@ -1484,31 +1484,31 @@
         <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1520,31 +1520,31 @@
         <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
         <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
@@ -1553,25 +1553,25 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
         <v>4.15</v>
@@ -1580,19 +1580,19 @@
         <v>11.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
         <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
         <v>6.6</v>
@@ -1604,16 +1604,16 @@
         <v>5.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -1660,10 +1660,10 @@
         <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1.82</v>
@@ -1681,16 +1681,16 @@
         <v>13.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>4.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
         <v>1.28</v>
@@ -1705,16 +1705,16 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA7" t="n">
         <v>10.75</v>
@@ -1729,13 +1729,13 @@
         <v>9.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>50</v>
@@ -1750,10 +1750,10 @@
         <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
         <v>3.25</v>
@@ -1762,7 +1762,7 @@
         <v>6.1</v>
       </c>
       <c r="AP7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1774,10 +1774,10 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
@@ -1786,10 +1786,10 @@
         <v>8.25</v>
       </c>
       <c r="AX7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY7" t="n">
         <v>37</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -1798,7 +1798,7 @@
         <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3889,7 +3889,7 @@
         <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>9</v>
@@ -3898,7 +3898,7 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
         <v>15</v>
@@ -3919,7 +3919,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3967,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3979,7 +3979,7 @@
         <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
         <v>201</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -4337,10 +4337,10 @@
         <v>13</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
@@ -4584,7 +4584,7 @@
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4620,13 +4620,13 @@
         <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
@@ -4653,10 +4653,10 @@
         <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
@@ -1523,16 +1523,16 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
         <v>18</v>
@@ -1541,16 +1541,16 @@
         <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
         <v>9.25</v>
@@ -1565,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>35</v>
@@ -1580,7 +1580,7 @@
         <v>11.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>45</v>
@@ -1595,13 +1595,13 @@
         <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>16.5</v>
@@ -2585,22 +2585,22 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.75</v>
@@ -2764,7 +2764,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2800,16 +2800,16 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
@@ -2830,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2839,7 +2839,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2851,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2860,7 +2860,7 @@
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
@@ -3871,10 +3871,10 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1484,13 +1484,13 @@
         <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1505,7 +1505,7 @@
         <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>1.75</v>
@@ -1517,34 +1517,34 @@
         <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
@@ -1553,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH6" t="n">
         <v>16.5</v>
@@ -1574,7 +1574,7 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO6" t="n">
         <v>11.25</v>
@@ -1586,7 +1586,7 @@
         <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
@@ -1610,10 +1610,10 @@
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
@@ -3674,7 +3674,7 @@
         <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -3707,13 +3707,13 @@
         <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
         <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
         <v>19</v>
@@ -3734,13 +3734,13 @@
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
         <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
@@ -3791,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
@@ -4599,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1660,16 +1660,16 @@
         <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L7" t="n">
         <v>6.3</v>
@@ -1684,7 +1684,7 @@
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.55</v>
@@ -1693,28 +1693,28 @@
         <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>10.75</v>
@@ -1723,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>9.25</v>
@@ -1735,7 +1735,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>50</v>
@@ -1750,10 +1750,10 @@
         <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
         <v>3.25</v>
@@ -1765,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR7" t="n">
         <v>40</v>
@@ -1786,7 +1786,7 @@
         <v>8.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY7" t="n">
         <v>37</v>
@@ -2042,7 +2042,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -4754,31 +4754,31 @@
         <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O24" t="n">
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q24" t="n">
         <v>1.72</v>
@@ -4790,7 +4790,7 @@
         <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
@@ -4802,7 +4802,7 @@
         <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -4814,13 +4814,13 @@
         <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4832,16 +4832,16 @@
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
         <v>45</v>
@@ -4868,7 +4868,7 @@
         <v>200</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU24" t="n">
         <v>7.5</v>
@@ -4877,10 +4877,10 @@
         <v>65</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4892,7 +4892,7 @@
         <v>175</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1481,16 +1481,16 @@
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1505,7 +1505,7 @@
         <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.75</v>
@@ -1517,28 +1517,28 @@
         <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1553,10 +1553,10 @@
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1565,28 +1565,28 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
@@ -1595,28 +1595,28 @@
         <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -2203,34 +2203,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
         <v>2.2</v>
@@ -2239,10 +2239,10 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2257,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
@@ -2269,28 +2269,28 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2302,7 +2302,7 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2314,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2588,25 +2588,25 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2684,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -5115,37 +5115,37 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="H26" t="n">
         <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
         <v>1.85</v>
       </c>
       <c r="L26" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R26" t="n">
         <v>1.42</v>
@@ -5157,34 +5157,34 @@
         <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>1.65</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="n">
         <v>5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5193,43 +5193,43 @@
         <v>110</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR26" t="n">
         <v>150</v>
       </c>
       <c r="AS26" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT26" t="n">
         <v>2.15</v>
@@ -5241,22 +5241,22 @@
         <v>80</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB26" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -2221,16 +2221,16 @@
         <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>2.2</v>
@@ -3209,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3525,16 +3525,16 @@
         <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,25 +3558,25 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
         <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>126</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3597,7 +3597,7 @@
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>41</v>
@@ -3609,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -5136,7 +5136,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.52</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -819,25 +819,25 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -867,25 +867,25 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -971,28 +971,28 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
         <v>17</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
@@ -1001,22 +1001,22 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1028,16 +1028,16 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1049,25 +1049,25 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1490,7 +1490,7 @@
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1523,10 +1523,10 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
@@ -1535,16 +1535,16 @@
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
@@ -1553,10 +1553,10 @@
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1565,37 +1565,37 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.87</v>
       </c>
       <c r="J8" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1866,13 +1866,13 @@
         <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1887,13 +1887,13 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
@@ -1902,13 +1902,13 @@
         <v>35</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1917,19 +1917,19 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
         <v>24</v>
@@ -1938,16 +1938,16 @@
         <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR8" t="n">
         <v>150</v>
@@ -1971,13 +1971,13 @@
         <v>9.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3492,13 +3492,13 @@
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,7 +3558,7 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>12</v>
@@ -3570,13 +3570,13 @@
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>126</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3597,7 +3597,7 @@
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>41</v>
@@ -4936,13 +4936,13 @@
         <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
@@ -4960,19 +4960,19 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q25" t="n">
         <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T25" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U25" t="n">
         <v>1.62</v>
@@ -4984,7 +4984,7 @@
         <v>8.75</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
@@ -4996,25 +4996,25 @@
         <v>16</v>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>10.75</v>
@@ -5038,7 +5038,7 @@
         <v>10.75</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>40</v>
@@ -5050,7 +5050,7 @@
         <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU25" t="n">
         <v>6.8</v>
@@ -5059,7 +5059,7 @@
         <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX25" t="n">
         <v>16.5</v>
@@ -5136,7 +5136,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.52</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1505,7 +1505,7 @@
         <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>1.75</v>
@@ -1523,16 +1523,16 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>18</v>
@@ -1544,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
@@ -1553,19 +1553,19 @@
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>35</v>
@@ -1583,7 +1583,7 @@
         <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
         <v>70</v>
@@ -1592,22 +1592,22 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>80</v>
@@ -1616,7 +1616,7 @@
         <v>110</v>
       </c>
       <c r="BB6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -2588,7 +2588,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1496,7 +1496,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2585,10 +2585,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2624,16 +2624,16 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
         <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2666,7 +2666,7 @@
         <v>251</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
         <v>17</v>
@@ -3209,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
@@ -4599,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
         <v>1.52</v>
@@ -5339,100 +5339,100 @@
         <v>2.22</v>
       </c>
       <c r="U27" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
         <v>1.62</v>
       </c>
       <c r="W27" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
         <v>40</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE27" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="n">
         <v>45</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR27" t="n">
         <v>100</v>
       </c>
       <c r="AS27" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT27" t="n">
         <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>32</v>
       </c>
       <c r="AZ27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA27" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1371,7 +1371,7 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1389,19 +1389,19 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2239,10 +2239,10 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2257,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
@@ -2302,7 +2302,7 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2320,7 +2320,7 @@
         <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2615,7 +2615,7 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2666,7 +2666,7 @@
         <v>251</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>17</v>
@@ -3161,7 +3161,7 @@
         <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -3182,13 +3182,13 @@
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
         <v>8</v>
@@ -3233,13 +3233,13 @@
         <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
@@ -3871,10 +3871,10 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -4754,31 +4754,31 @@
         <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K24" t="n">
         <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q24" t="n">
         <v>1.72</v>
@@ -4790,7 +4790,7 @@
         <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="U24" t="n">
         <v>1.75</v>
@@ -4802,7 +4802,7 @@
         <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -4814,13 +4814,13 @@
         <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4832,16 +4832,16 @@
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="n">
         <v>45</v>
@@ -4868,7 +4868,7 @@
         <v>200</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU24" t="n">
         <v>7.5</v>
@@ -4877,10 +4877,10 @@
         <v>65</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4892,7 +4892,7 @@
         <v>175</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1389,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
@@ -1484,7 +1484,7 @@
         <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1505,7 +1505,7 @@
         <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.75</v>
@@ -1520,10 +1520,10 @@
         <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>10.25</v>
@@ -1538,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1553,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>17.5</v>
@@ -1565,7 +1565,7 @@
         <v>45</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>35</v>
@@ -1574,16 +1574,16 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR6" t="n">
         <v>70</v>
@@ -1604,7 +1604,7 @@
         <v>5.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1613,7 +1613,7 @@
         <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2087,13 +2087,13 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>34</v>
@@ -3871,10 +3871,10 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
@@ -1484,13 +1484,13 @@
         <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1520,13 +1520,13 @@
         <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
@@ -1535,10 +1535,10 @@
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1553,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH6" t="n">
         <v>17.5</v>
@@ -1565,7 +1565,7 @@
         <v>45</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>35</v>
@@ -1574,25 +1574,25 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
         <v>6.6</v>
@@ -1604,7 +1604,7 @@
         <v>5.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1613,7 +1613,7 @@
         <v>80</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
         <v>250</v>
@@ -1660,19 +1660,19 @@
         <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="I7" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1693,64 +1693,64 @@
         <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T7" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>175</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>500</v>
@@ -1762,13 +1762,13 @@
         <v>6.1</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS7" t="n">
         <v>175</v>
@@ -1777,28 +1777,28 @@
         <v>3.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2415,10 +2415,10 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -4235,10 +4235,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -4722,17 +4722,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zBhYf1gl</t>
+          <t>jwH10NVQ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13/10/2024</t>
+          <t>12/10/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,157 +4742,157 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Loudoun</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.55</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.18</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="L24" t="n">
-        <v>4.85</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W24" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X24" t="n">
-        <v>8.25</v>
+        <v>11.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
         <v>65</v>
       </c>
       <c r="AG24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH24" t="n">
         <v>14</v>
       </c>
-      <c r="AH24" t="n">
-        <v>28</v>
-      </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AJ24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR24" t="n">
         <v>80</v>
       </c>
-      <c r="AK24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>55</v>
-      </c>
       <c r="AS24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="BA24" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4pcxfL8f</t>
+          <t>zBhYf1gl</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,157 +4924,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Loudoun</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.75</v>
       </c>
-      <c r="R25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V25" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="W25" t="n">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="X25" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO25" t="n">
         <v>8</v>
       </c>
-      <c r="AD25" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
+      <c r="AP25" t="n">
         <v>17</v>
       </c>
-      <c r="AI25" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS25" t="n">
         <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="AX25" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AY25" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AZ25" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="BA25" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fTOy1Zit</t>
+          <t>4pcxfL8f</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>2.67</v>
       </c>
       <c r="K26" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.22</v>
+        <v>3.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.47</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>2.02</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.95</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>8.75</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AB26" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>12.5</v>
       </c>
       <c r="AI26" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>10.75</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AR26" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AS26" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.15</v>
+        <v>2.95</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.45</v>
+        <v>5.1</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BB26" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lnCTdNuP</t>
+          <t>fTOy1Zit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,162 +5288,344 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Universidad Central</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.77</v>
       </c>
       <c r="H27" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L27" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W27" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>110</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AK27" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.8</v>
+        <v>4.45</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AR27" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AS27" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV27" t="n">
         <v>80</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.3</v>
+        <v>4.45</v>
       </c>
       <c r="AX27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lnCTdNuP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Universidad Central</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP28" t="n">
         <v>22</v>
       </c>
-      <c r="AY27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA27" t="n">
+      <c r="AQ28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA28" t="n">
         <v>200</v>
       </c>
-      <c r="BB27" t="n">
+      <c r="BB28" t="n">
         <v>500</v>
       </c>
-      <c r="BC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD27" t="n">
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -819,25 +819,25 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -867,7 +867,7 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -876,16 +876,16 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -971,28 +971,28 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
@@ -1001,22 +1001,22 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1028,16 +1028,16 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1049,25 +1049,25 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1493,22 +1493,22 @@
         <v>3.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1517,16 +1517,16 @@
         <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y6" t="n">
         <v>8.75</v>
@@ -1541,22 +1541,22 @@
         <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD6" t="n">
         <v>6.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>11.25</v>
@@ -1565,37 +1565,37 @@
         <v>45</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO6" t="n">
         <v>10.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
         <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
@@ -1607,16 +1607,16 @@
         <v>17.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA6" t="n">
         <v>110</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1684,7 +1684,7 @@
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q7" t="n">
         <v>1.55</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2427,22 +2427,22 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2454,13 +2454,13 @@
         <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2475,7 +2475,7 @@
         <v>101</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL11" t="n">
         <v>67</v>
@@ -2487,7 +2487,7 @@
         <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2499,7 +2499,7 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.75</v>
@@ -2508,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
@@ -2523,7 +2523,7 @@
         <v>201</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2585,10 +2585,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -3319,10 +3319,10 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>
@@ -3495,10 +3495,10 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3871,10 +3871,10 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -4235,10 +4235,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H27" t="n">
         <v>2.72</v>
@@ -5306,13 +5306,13 @@
         <v>2.77</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5321,22 +5321,22 @@
         <v>5.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R27" t="n">
         <v>1.42</v>
       </c>
       <c r="S27" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T27" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -5345,25 +5345,25 @@
         <v>1.65</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
         <v>35</v>
       </c>
       <c r="AA27" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD27" t="n">
         <v>5.5</v>
@@ -5375,22 +5375,22 @@
         <v>110</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>35</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
@@ -5399,46 +5399,46 @@
         <v>4.45</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR27" t="n">
         <v>150</v>
       </c>
       <c r="AS27" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT27" t="n">
         <v>2.15</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV27" t="n">
         <v>80</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB27" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1678,13 +1678,13 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.55</v>
@@ -1693,10 +1693,10 @@
         <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1848,10 +1848,10 @@
         <v>1.87</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
         <v>2.42</v>
@@ -1881,19 +1881,19 @@
         <v>2.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
@@ -1908,7 +1908,7 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1917,19 +1917,19 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI8" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
         <v>24</v>
@@ -1938,16 +1938,16 @@
         <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
       </c>
       <c r="AQ8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR8" t="n">
         <v>150</v>
@@ -1956,7 +1956,7 @@
         <v>350</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1971,7 +1971,7 @@
         <v>9.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>32</v>
@@ -3131,22 +3131,22 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
         <v>1.53</v>
@@ -3161,7 +3161,7 @@
         <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -3182,13 +3182,13 @@
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>8</v>
@@ -3209,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
@@ -3233,13 +3233,13 @@
         <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
@@ -3495,10 +3495,10 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -4053,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4235,10 +4235,10 @@
         <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -5124,13 +5124,13 @@
         <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -5151,10 +5151,10 @@
         <v>2.02</v>
       </c>
       <c r="S26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U26" t="n">
         <v>1.62</v>
@@ -5166,7 +5166,7 @@
         <v>8.75</v>
       </c>
       <c r="X26" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>8.75</v>
@@ -5178,7 +5178,7 @@
         <v>16</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
@@ -5193,16 +5193,16 @@
         <v>50</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
@@ -5217,22 +5217,22 @@
         <v>4.15</v>
       </c>
       <c r="AO26" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>40</v>
       </c>
       <c r="AR26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS26" t="n">
         <v>200</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU26" t="n">
         <v>6.8</v>
@@ -5244,7 +5244,7 @@
         <v>5.1</v>
       </c>
       <c r="AX26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1371,7 +1371,7 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1395,13 +1395,13 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.82</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
@@ -1687,58 +1687,58 @@
         <v>4.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T7" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9</v>
-      </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1747,7 +1747,7 @@
         <v>175</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
         <v>65</v>
@@ -1759,16 +1759,16 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS7" t="n">
         <v>175</v>
@@ -1777,28 +1777,28 @@
         <v>3.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX7" t="n">
         <v>40</v>
       </c>
       <c r="AY7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1878,7 +1878,7 @@
         <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
@@ -2036,7 +2036,7 @@
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2072,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2087,13 +2087,13 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>34</v>
@@ -2150,7 +2150,7 @@
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2573,13 +2573,13 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>3.6</v>
@@ -2609,10 +2609,10 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2630,7 +2630,7 @@
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2645,7 +2645,7 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2657,13 +2657,13 @@
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN12" t="n">
         <v>4.33</v>
@@ -2681,7 +2681,7 @@
         <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -2770,7 +2770,7 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -3149,10 +3149,10 @@
         <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3194,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
         <v>29</v>
@@ -3209,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
@@ -3230,7 +3230,7 @@
         <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
@@ -3242,16 +3242,16 @@
         <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3519,22 +3519,22 @@
         <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3543,13 +3543,13 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -3558,37 +3558,37 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
         <v>101</v>
@@ -3603,13 +3603,13 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3618,7 +3618,7 @@
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>351</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
         <v>4.5</v>
@@ -3710,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
@@ -3749,7 +3749,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>51</v>
@@ -3761,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
@@ -3779,7 +3779,7 @@
         <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
@@ -3788,7 +3788,7 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3889,16 +3889,16 @@
         <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
         <v>15</v>
@@ -3967,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3979,7 +3979,7 @@
         <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
         <v>201</v>
@@ -4095,13 +4095,13 @@
         <v>5.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
@@ -4146,7 +4146,7 @@
         <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
@@ -4164,7 +4164,7 @@
         <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4229,16 +4229,16 @@
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.53</v>
@@ -4722,17 +4722,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jwH10NVQ</t>
+          <t>zBhYf1gl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12/10/2024</t>
+          <t>13/10/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,157 +4742,157 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Oakland Roots</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Loudoun</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.92</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="U24" t="n">
         <v>1.75</v>
       </c>
-      <c r="S24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB24" t="n">
         <v>24</v>
       </c>
-      <c r="AA24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>30</v>
-      </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>65</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.75</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="AO24" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="BA24" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zBhYf1gl</t>
+          <t>4pcxfL8f</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,49 +4924,49 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Loudoun</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.2</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L25" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,76 +4975,76 @@
         <v>2.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="W25" t="n">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AB25" t="n">
         <v>24</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>11.25</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AK25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>40</v>
       </c>
-      <c r="AL25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>26</v>
-      </c>
       <c r="AR25" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS25" t="n">
         <v>200</v>
@@ -5053,28 +5053,28 @@
         <v>2.92</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="AX25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AZ25" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="BA25" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="BB25" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4pcxfL8f</t>
+          <t>fTOy1Zit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="H26" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.45</v>
       </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.7</v>
-      </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
         <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="R26" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.92</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="W26" t="n">
-        <v>8.75</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AA26" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="AE26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AR26" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AS26" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.92</v>
+        <v>2.15</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AV26" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA26" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="BB26" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fTOy1Zit</t>
+          <t>lnCTdNuP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,55 +5288,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Universidad Central</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.75</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="R27" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T27" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -5345,287 +5345,105 @@
         <v>1.65</v>
       </c>
       <c r="W27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="n">
         <v>6.3</v>
       </c>
-      <c r="X27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>6</v>
-      </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF27" t="n">
         <v>110</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.45</v>
+        <v>3.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>16.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR27" t="n">
         <v>90</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AS27" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>150</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="BA27" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB27" t="n">
         <v>500</v>
       </c>
-      <c r="AT27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>400</v>
-      </c>
       <c r="BC27" t="n">
         <v>51</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>lnCTdNuP</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>13/10/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W28" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD28" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -986,7 +986,7 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -1010,13 +1010,13 @@
         <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1293,46 +1293,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1344,28 +1344,28 @@
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1377,40 +1377,40 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1419,10 +1419,10 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1434,7 +1434,7 @@
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1678,7 +1678,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
@@ -2042,19 +2042,19 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
@@ -3131,10 +3131,10 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -3143,10 +3143,10 @@
         <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3155,10 +3155,10 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
@@ -3176,7 +3176,7 @@
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>7</v>
@@ -3185,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -3203,13 +3203,13 @@
         <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
@@ -3313,10 +3313,10 @@
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3501,16 +3501,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3659,55 +3659,55 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.57</v>
       </c>
-      <c r="T18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
         <v>9</v>
@@ -3716,28 +3716,28 @@
         <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3749,7 +3749,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
         <v>51</v>
@@ -3767,19 +3767,19 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
@@ -3791,7 +3791,7 @@
         <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
@@ -3841,40 +3841,40 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -3892,22 +3892,22 @@
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
       </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3919,10 +3919,10 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
@@ -3931,10 +3931,10 @@
         <v>41</v>
       </c>
       <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
         <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
       </c>
       <c r="AM19" t="n">
         <v>251</v>
@@ -3943,13 +3943,13 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3970,7 +3970,7 @@
         <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>29</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -4071,19 +4071,19 @@
         <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
@@ -4101,16 +4101,16 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -4122,7 +4122,7 @@
         <v>301</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
@@ -4152,16 +4152,16 @@
         <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
         <v>251</v>
@@ -4301,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
@@ -4435,7 +4435,7 @@
         <v>1.62</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
         <v>34</v>
@@ -4444,7 +4444,7 @@
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA22" t="n">
         <v>51</v>
@@ -4462,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="n">
         <v>5.5</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
         <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4957,16 +4957,16 @@
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q25" t="n">
         <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,25 +4975,25 @@
         <v>2.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
         <v>8.75</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB25" t="n">
         <v>24</v>
@@ -5008,43 +5008,43 @@
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
         <v>350</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>40</v>
       </c>
       <c r="AR25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS25" t="n">
         <v>200</v>
@@ -5053,25 +5053,25 @@
         <v>2.92</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV25" t="n">
         <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA25" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB25" t="n">
         <v>250</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.87</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>1.88</v>
       </c>
       <c r="L27" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5321,22 +5321,22 @@
         <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -5345,25 +5345,25 @@
         <v>1.65</v>
       </c>
       <c r="W27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.25</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD27" t="n">
         <v>5.7</v>
@@ -5375,46 +5375,46 @@
         <v>110</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL27" t="n">
         <v>60</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>65</v>
       </c>
       <c r="AM27" t="n">
         <v>201</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR27" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS27" t="n">
         <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU27" t="n">
         <v>7.6</v>
@@ -5423,16 +5423,16 @@
         <v>90</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA27" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -953,22 +953,22 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -977,25 +977,25 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1031,10 +1031,10 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1043,10 +1043,10 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1296,58 +1296,58 @@
         <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
@@ -1359,19 +1359,19 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
@@ -1398,40 +1398,40 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1.82</v>
@@ -1672,7 +1672,7 @@
         <v>2.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1687,22 +1687,22 @@
         <v>4.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
         <v>7.9</v>
@@ -1726,40 +1726,40 @@
         <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
         <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>50</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1774,19 +1774,19 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
         <v>8.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY7" t="n">
         <v>37</v>
@@ -1842,16 +1842,16 @@
         <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
         <v>2.42</v>
@@ -1866,19 +1866,19 @@
         <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1893,10 +1893,10 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>35</v>
@@ -1905,10 +1905,10 @@
         <v>40</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1917,7 +1917,7 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH8" t="n">
         <v>9.25</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
         <v>24</v>
@@ -1959,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
@@ -2045,16 +2045,16 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3164,22 +3164,22 @@
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3191,43 +3191,43 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
         <v>13</v>
       </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
         <v>29</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.5</v>
@@ -3239,19 +3239,19 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -3313,10 +3313,10 @@
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,16 +3337,16 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
@@ -3409,7 +3409,7 @@
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3427,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3889,19 +3889,19 @@
         <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
         <v>19</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3913,7 +3913,7 @@
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
@@ -3925,25 +3925,25 @@
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
@@ -3967,16 +3967,16 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
@@ -4074,13 +4074,13 @@
         <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>19</v>
@@ -4101,7 +4101,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>17</v>
@@ -4113,7 +4113,7 @@
         <v>41</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
@@ -4125,10 +4125,10 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
@@ -4149,10 +4149,10 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4933,148 +4933,148 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="J25" t="n">
         <v>2.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="V25" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="W25" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="X25" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
         <v>25</v>
       </c>
-      <c r="AL25" t="n">
-        <v>30</v>
-      </c>
       <c r="AM25" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO25" t="n">
         <v>10.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS25" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB25" t="n">
         <v>200</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>250</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5297,112 +5297,112 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.82</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.87</v>
-      </c>
       <c r="K27" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="L27" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W27" t="n">
         <v>6</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W27" t="n">
-        <v>5.9</v>
-      </c>
       <c r="X27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y27" t="n">
         <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH27" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17</v>
-      </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
         <v>3.9</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>50</v>
@@ -5414,31 +5414,31 @@
         <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV27" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA27" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BB27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -977,16 +977,16 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1010,10 +1010,10 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1055,10 +1055,10 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1335,16 +1335,16 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1374,13 +1374,13 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1413,13 +1413,13 @@
         <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>26</v>
@@ -1657,88 +1657,88 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H7" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
         <v>6.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.42</v>
+        <v>3.32</v>
       </c>
       <c r="U7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.78</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.82</v>
-      </c>
       <c r="W7" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9</v>
       </c>
-      <c r="AA7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1750,7 +1750,7 @@
         <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>600</v>
@@ -1759,22 +1759,22 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>40</v>
       </c>
       <c r="AS7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1783,13 +1783,13 @@
         <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -1798,7 +1798,7 @@
         <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,76 +1839,76 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>10.3</v>
+        <v>9.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1917,19 +1917,19 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
         <v>24</v>
@@ -1938,7 +1938,7 @@
         <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1953,31 +1953,31 @@
         <v>150</v>
       </c>
       <c r="AS8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU8" t="n">
         <v>7.1</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
         <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
@@ -2427,16 +2427,16 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2454,13 +2454,13 @@
         <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2511,7 +2511,7 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
@@ -2523,7 +2523,7 @@
         <v>201</v>
       </c>
       <c r="BA11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2585,22 +2585,22 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
@@ -2773,16 +2773,16 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2800,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
@@ -2827,16 +2827,16 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2863,7 +2863,7 @@
         <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>2.63</v>
@@ -2875,10 +2875,10 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -2887,7 +2887,7 @@
         <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
         <v>251</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2982,7 +2982,7 @@
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -2991,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3015,13 +3015,13 @@
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -3161,13 +3161,13 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
@@ -3191,7 +3191,7 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -3313,10 +3313,10 @@
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3409,7 +3409,7 @@
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3662,49 +3662,49 @@
         <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.1</v>
       </c>
-      <c r="K18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
         <v>5.5</v>
@@ -3713,13 +3713,13 @@
         <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3734,10 +3734,10 @@
         <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3761,25 +3761,25 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
@@ -3788,7 +3788,7 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
@@ -3797,7 +3797,7 @@
         <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -4053,37 +4053,37 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
@@ -4092,7 +4092,7 @@
         <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4101,31 +4101,31 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
         <v>41</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4140,7 +4140,7 @@
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4152,13 +4152,13 @@
         <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
         <v>101</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
         <v>6.5</v>
@@ -4405,10 +4405,10 @@
         <v>2.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4435,7 +4435,7 @@
         <v>1.62</v>
       </c>
       <c r="W22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
         <v>34</v>
@@ -4444,7 +4444,7 @@
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="n">
         <v>51</v>
@@ -4462,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>5.5</v>
@@ -4498,7 +4498,7 @@
         <v>151</v>
       </c>
       <c r="AR22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS22" t="n">
         <v>501</v>
@@ -4519,7 +4519,7 @@
         <v>8</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>26</v>
@@ -5300,43 +5300,43 @@
         <v>2.18</v>
       </c>
       <c r="H27" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
         <v>2.82</v>
       </c>
       <c r="K27" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R27" t="n">
         <v>1.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U27" t="n">
         <v>1.93</v>
@@ -5363,10 +5363,10 @@
         <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE27" t="n">
         <v>16.5</v>
@@ -5375,19 +5375,19 @@
         <v>100</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL27" t="n">
         <v>50</v>
@@ -5408,37 +5408,37 @@
         <v>50</v>
       </c>
       <c r="AR27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS27" t="n">
         <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV27" t="n">
         <v>75</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
         <v>110</v>
       </c>
       <c r="BA27" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB27" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2221,10 +2221,10 @@
         <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2245,10 +2245,10 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>9.5</v>
@@ -2257,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>6.5</v>
@@ -2296,16 +2296,16 @@
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2326,10 +2326,10 @@
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2570,10 +2570,10 @@
         <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2582,46 +2582,46 @@
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2633,13 +2633,13 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2651,19 +2651,19 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
         <v>4.33</v>
@@ -2672,10 +2672,10 @@
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>67</v>
@@ -2684,13 +2684,13 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -2708,7 +2708,7 @@
         <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3343,7 +3343,7 @@
         <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>10</v>
@@ -3361,7 +3361,7 @@
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3376,7 +3376,7 @@
         <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -3385,13 +3385,13 @@
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN16" t="n">
         <v>4.33</v>
@@ -3430,7 +3430,7 @@
         <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>
@@ -4405,10 +4405,10 @@
         <v>2.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4599,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4751,145 +4751,145 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.25</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8</v>
-      </c>
       <c r="Z24" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB24" t="n">
         <v>24</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR24" t="n">
         <v>65</v>
       </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>55</v>
-      </c>
       <c r="AS24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV24" t="n">
         <v>65</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA24" t="n">
         <v>150</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>175</v>
       </c>
       <c r="BB24" t="n">
         <v>350</v>
@@ -5115,46 +5115,46 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="H26" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
         <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R26" t="n">
         <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="U26" t="n">
         <v>1.98</v>
@@ -5169,16 +5169,16 @@
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC26" t="n">
         <v>5.9</v>
@@ -5190,22 +5190,22 @@
         <v>16.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG26" t="n">
         <v>6.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
         <v>45</v>
@@ -5214,22 +5214,22 @@
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS26" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT26" t="n">
         <v>2.15</v>
@@ -5241,19 +5241,19 @@
         <v>80</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="AX26" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB26" t="n">
         <v>400</v>
@@ -5318,7 +5318,7 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -816,76 +816,76 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -980,7 +980,7 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,25 +989,25 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -1028,10 +1028,10 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1147,10 +1147,10 @@
         <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1159,13 +1159,13 @@
         <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
         <v>51</v>
@@ -1174,7 +1174,7 @@
         <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
@@ -1186,19 +1186,19 @@
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>6.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1210,10 +1210,10 @@
         <v>351</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1228,19 +1228,19 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
@@ -1296,13 +1296,13 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1317,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1374,7 +1374,7 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1657,94 +1657,94 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="T7" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.82</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
@@ -1759,37 +1759,37 @@
         <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>40</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY7" t="n">
         <v>37</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>40</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -1798,7 +1798,7 @@
         <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
         <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1872,13 +1872,13 @@
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
-        <v>2.94</v>
+        <v>2.55</v>
       </c>
       <c r="U8" t="n">
         <v>1.65</v>
@@ -1887,10 +1887,10 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
@@ -1908,16 +1908,16 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH8" t="n">
         <v>9.5</v>
@@ -1935,16 +1935,16 @@
         <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>110</v>
@@ -1956,22 +1956,22 @@
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
         <v>3.8</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>35</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2072,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2087,13 +2087,13 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>34</v>
@@ -2102,13 +2102,13 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2120,10 +2120,10 @@
         <v>101</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
         <v>3.5</v>
@@ -2150,7 +2150,7 @@
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2221,10 +2221,10 @@
         <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2403,22 +2403,22 @@
         <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2427,16 +2427,16 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2451,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>9</v>
@@ -2460,7 +2460,7 @@
         <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2511,19 +2511,19 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ11" t="n">
         <v>201</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>3.75</v>
@@ -2591,28 +2591,28 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
@@ -2627,13 +2627,13 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2642,13 +2642,13 @@
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>12</v>
@@ -2657,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
         <v>41</v>
@@ -2669,22 +2669,22 @@
         <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2693,7 +2693,7 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
         <v>17</v>
@@ -2705,7 +2705,7 @@
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>251</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2797,25 +2797,25 @@
         <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
         <v>10</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>19</v>
-      </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
@@ -2827,37 +2827,37 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>301</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2869,28 +2869,28 @@
         <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
         <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2961,10 +2961,10 @@
         <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2982,16 +2982,16 @@
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3015,13 +3015,13 @@
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
         <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -3346,16 +3346,16 @@
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3373,16 +3373,16 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
@@ -3394,10 +3394,10 @@
         <v>301</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3406,7 +3406,7 @@
         <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
@@ -3421,10 +3421,10 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3433,7 +3433,7 @@
         <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
         <v>201</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3501,16 +3501,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3519,10 +3519,10 @@
         <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
         <v>9.5</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -3549,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -3558,37 +3558,37 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>101</v>
@@ -3603,10 +3603,10 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
@@ -3618,7 +3618,7 @@
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>351</v>
@@ -3659,34 +3659,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>1.83</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
         <v>3.1</v>
@@ -3701,16 +3701,16 @@
         <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3719,13 +3719,13 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3737,7 +3737,7 @@
         <v>101</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3761,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>34</v>
@@ -3770,7 +3770,7 @@
         <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
         <v>351</v>
@@ -3788,13 +3788,13 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
         <v>151</v>
@@ -3844,10 +3844,10 @@
         <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
@@ -3883,10 +3883,10 @@
         <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3910,13 +3910,13 @@
         <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -4208,7 +4208,7 @@
         <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
         <v>2.3</v>
@@ -4262,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
         <v>34</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4301,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
@@ -4387,40 +4387,40 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J22" t="n">
         <v>7</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.5</v>
-      </c>
       <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
         <v>2.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4441,7 +4441,7 @@
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
         <v>81</v>
@@ -4450,31 +4450,31 @@
         <v>51</v>
       </c>
       <c r="AB22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE22" t="n">
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="n">
         <v>5.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK22" t="n">
         <v>15</v>
@@ -4486,10 +4486,10 @@
         <v>201</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP22" t="n">
         <v>41</v>
@@ -4513,16 +4513,16 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>51</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -4599,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4695,7 +4695,7 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
         <v>13</v>
@@ -4751,34 +4751,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="K24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q24" t="n">
         <v>1.78</v>
@@ -4787,79 +4787,79 @@
         <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T24" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y24" t="n">
         <v>8.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>30</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>35</v>
       </c>
       <c r="AR24" t="n">
         <v>65</v>
@@ -4868,31 +4868,31 @@
         <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AV24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BA24" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="J25" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.32</v>
       </c>
       <c r="L25" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4975,25 +4975,25 @@
         <v>3.2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V25" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
@@ -5002,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -5011,37 +5011,37 @@
         <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ25" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
         <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP25" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR25" t="n">
         <v>60</v>
@@ -5053,25 +5053,25 @@
         <v>3.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB25" t="n">
         <v>200</v>
@@ -5124,73 +5124,73 @@
         <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L26" t="n">
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.52</v>
       </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
         <v>2.22</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.15</v>
-      </c>
       <c r="U26" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
         <v>37</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD26" t="n">
         <v>5.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="n">
         <v>6.5</v>
@@ -5205,7 +5205,7 @@
         <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
         <v>45</v>
@@ -5214,34 +5214,34 @@
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS26" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AX26" t="n">
         <v>15.5</v>
@@ -5250,7 +5250,7 @@
         <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA26" t="n">
         <v>120</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L27" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>6.35</v>
+        <v>6.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5339,100 +5339,100 @@
         <v>2.27</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
         <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AK27" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT27" t="n">
         <v>2.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BA27" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J4" t="n">
         <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>2.3</v>
@@ -1147,10 +1147,10 @@
         <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1159,7 +1159,7 @@
         <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1189,10 +1189,10 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
@@ -1210,13 +1210,13 @@
         <v>351</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
         <v>101</v>
@@ -1228,7 +1228,7 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1237,10 +1237,10 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
@@ -1311,22 +1311,22 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1377,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2254,7 +2254,7 @@
         <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
@@ -2293,10 +2293,10 @@
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>351</v>
@@ -2311,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2797,7 +2797,7 @@
         <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2806,10 +2806,10 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
         <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>21</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2878,7 +2878,7 @@
         <v>4.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>26</v>
@@ -2961,10 +2961,10 @@
         <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3665,7 +3665,7 @@
         <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -3677,10 +3677,10 @@
         <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.62</v>
@@ -3689,10 +3689,10 @@
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.67</v>
@@ -3701,10 +3701,10 @@
         <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
@@ -3713,10 +3713,10 @@
         <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
@@ -3725,7 +3725,7 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3734,7 +3734,7 @@
         <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
         <v>8</v>
@@ -3788,7 +3788,7 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
@@ -3865,16 +3865,16 @@
         <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -4405,10 +4405,10 @@
         <v>2.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
         <v>2.67</v>
@@ -4957,16 +4957,16 @@
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q25" t="n">
         <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S25" t="n">
         <v>1.3</v>
@@ -4984,7 +4984,7 @@
         <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>9.25</v>
@@ -5023,7 +5023,7 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL25" t="n">
         <v>23</v>
@@ -5032,13 +5032,13 @@
         <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AO25" t="n">
         <v>11.25</v>
       </c>
       <c r="AP25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
         <v>40</v>
@@ -5065,7 +5065,7 @@
         <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1296,13 +1296,13 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1374,10 +1374,10 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K7" t="n">
         <v>2.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1702,16 +1702,16 @@
         <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
@@ -1729,25 +1729,25 @@
         <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
         <v>65</v>
@@ -1777,16 +1777,16 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY7" t="n">
         <v>37</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1872,7 +1872,7 @@
         <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.39</v>
@@ -1890,7 +1890,7 @@
         <v>11.5</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
@@ -1908,16 +1908,16 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
         <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH8" t="n">
         <v>9.5</v>
@@ -1926,22 +1926,22 @@
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1953,13 +1953,13 @@
         <v>150</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
         <v>2.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
@@ -1971,7 +1971,7 @@
         <v>9.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
         <v>35</v>
@@ -1980,7 +1980,7 @@
         <v>65</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2245,16 +2245,16 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2305,13 +2305,13 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2326,7 +2326,7 @@
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2797,7 +2797,7 @@
         <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2806,10 +2806,10 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2878,7 +2878,7 @@
         <v>4.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>26</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>1.83</v>
@@ -3707,16 +3707,16 @@
         <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
@@ -3737,7 +3737,7 @@
         <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3794,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
         <v>151</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3859,43 +3859,43 @@
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3907,19 +3907,19 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3931,34 +3931,34 @@
         <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN19" t="n">
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3973,7 +3973,7 @@
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="n">
         <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -4241,10 +4241,10 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
@@ -4262,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="n">
         <v>34</v>
@@ -4322,7 +4322,7 @@
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4340,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4405,10 +4405,10 @@
         <v>2.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -4417,10 +4417,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4716,7 +4716,7 @@
         <v>301</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -4751,58 +4751,58 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J24" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W24" t="n">
         <v>8</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7.6</v>
-      </c>
       <c r="X24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>8.25</v>
@@ -4811,88 +4811,88 @@
         <v>14</v>
       </c>
       <c r="AA24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD24" t="n">
         <v>7.4</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK24" t="n">
         <v>35</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO24" t="n">
         <v>8.75</v>
       </c>
       <c r="AP24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV24" t="n">
         <v>65</v>
       </c>
-      <c r="AS24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>70</v>
-      </c>
       <c r="AW24" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
         <v>120</v>
       </c>
       <c r="BA24" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1329,22 +1329,22 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="I7" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1699,25 +1699,25 @@
         <v>3.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
         <v>24</v>
@@ -1726,22 +1726,22 @@
         <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>45</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>150</v>
@@ -1750,22 +1750,22 @@
         <v>70</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>600</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR7" t="n">
         <v>40</v>
@@ -1774,22 +1774,22 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -1842,10 +1842,10 @@
         <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1854,7 +1854,7 @@
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1887,13 +1887,13 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
@@ -1902,19 +1902,19 @@
         <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
         <v>7.6</v>
@@ -1926,16 +1926,16 @@
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN8" t="n">
         <v>5.5</v>
@@ -1944,28 +1944,28 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
         <v>2.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AX8" t="n">
         <v>9.75</v>
@@ -1974,13 +1974,13 @@
         <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA8" t="n">
         <v>65</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2755,22 +2755,22 @@
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2779,16 +2779,16 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2839,7 +2839,7 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
@@ -2866,10 +2866,10 @@
         <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3883,16 +3883,16 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>9.5</v>
@@ -3919,13 +3919,13 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -3943,7 +3943,7 @@
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3976,7 +3976,7 @@
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>4.33</v>
@@ -4038,7 +4038,7 @@
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -4053,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4074,7 +4074,7 @@
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -4086,10 +4086,10 @@
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4113,13 +4113,13 @@
         <v>41</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
@@ -4152,7 +4152,7 @@
         <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="n">
         <v>2.7</v>
@@ -5151,13 +5151,13 @@
         <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.7</v>
@@ -5184,13 +5184,13 @@
         <v>6.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG26" t="n">
         <v>6.5</v>
@@ -5199,13 +5199,13 @@
         <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
         <v>45</v>
@@ -5217,7 +5217,7 @@
         <v>4.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP26" t="n">
         <v>25</v>
@@ -5232,7 +5232,7 @@
         <v>350</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU26" t="n">
         <v>7.1</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>2.77</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>1.9</v>
@@ -5339,16 +5339,16 @@
         <v>2.27</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
         <v>8.75</v>
@@ -5360,25 +5360,25 @@
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD27" t="n">
         <v>5.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
         <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>13.5</v>
@@ -5396,19 +5396,19 @@
         <v>900</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS27" t="n">
         <v>300</v>
@@ -5438,7 +5438,7 @@
         <v>175</v>
       </c>
       <c r="BB27" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -804,10 +804,10 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -825,13 +825,13 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>67</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.19</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
         <v>1.28</v>
@@ -1699,25 +1699,25 @@
         <v>3.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>7.8</v>
       </c>
       <c r="X7" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB7" t="n">
         <v>24</v>
@@ -1726,46 +1726,46 @@
         <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR7" t="n">
         <v>40</v>
@@ -1777,22 +1777,22 @@
         <v>3.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AY7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA7" t="n">
         <v>250</v>
@@ -2239,10 +2239,10 @@
         <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4599,7 +4599,7 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
         <v>2.4</v>
@@ -4620,19 +4620,19 @@
         <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
@@ -4653,10 +4653,10 @@
         <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -4671,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
@@ -4695,13 +4695,13 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>41</v>
@@ -4716,7 +4716,7 @@
         <v>301</v>
       </c>
       <c r="BD23" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4754,16 +4754,16 @@
         <v>1.72</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L24" t="n">
         <v>4.45</v>
@@ -4778,13 +4778,13 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
         <v>1.37</v>
@@ -4802,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y24" t="n">
         <v>8.25</v>
@@ -4814,25 +4814,25 @@
         <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>8.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>13.5</v>
@@ -4841,19 +4841,19 @@
         <v>65</v>
       </c>
       <c r="AK24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>400</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP24" t="n">
         <v>17.5</v>
@@ -4865,13 +4865,13 @@
         <v>60</v>
       </c>
       <c r="AS24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
         <v>2.85</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV24" t="n">
         <v>65</v>
@@ -4883,16 +4883,16 @@
         <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
         <v>120</v>
       </c>
       <c r="BA24" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -5124,19 +5124,19 @@
         <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>1.85</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.47</v>
@@ -5151,31 +5151,31 @@
         <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V26" t="n">
         <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>37</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
         <v>45</v>
@@ -5184,31 +5184,31 @@
         <v>6.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE26" t="n">
         <v>15.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH26" t="n">
         <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
         <v>201</v>
@@ -5217,22 +5217,22 @@
         <v>4.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS26" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU26" t="n">
         <v>7.1</v>
@@ -5244,19 +5244,19 @@
         <v>4.4</v>
       </c>
       <c r="AX26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BA26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB26" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -759,7 +759,7 @@
         <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>6.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1687,55 +1687,55 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
         <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
         <v>6.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>10.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
         <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>60</v>
@@ -1750,22 +1750,22 @@
         <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
         <v>3.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>40</v>
@@ -1774,13 +1774,13 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
         <v>8.75</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1863,16 +1863,16 @@
         <v>9.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.39</v>
@@ -1887,97 +1887,97 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
         <v>7.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI8" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
         <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS8" t="n">
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,28 +2233,28 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2305,13 +2305,13 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -4053,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4074,22 +4074,22 @@
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4110,19 +4110,19 @@
         <v>15</v>
       </c>
       <c r="AJ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK20" t="n">
         <v>41</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
         <v>11</v>
@@ -4149,10 +4149,10 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4164,7 +4164,7 @@
         <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4387,34 +4387,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -4429,37 +4429,37 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
         <v>23</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
       </c>
       <c r="AF22" t="n">
         <v>81</v>
@@ -4474,31 +4474,31 @@
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
         <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
         <v>201</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO22" t="n">
         <v>41</v>
       </c>
       <c r="AP22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS22" t="n">
         <v>501</v>
@@ -4507,22 +4507,22 @@
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AX22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>51</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
@@ -4578,7 +4578,7 @@
         <v>2.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -4599,7 +4599,7 @@
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
         <v>2.4</v>
@@ -4629,7 +4629,7 @@
         <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -4650,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>9.5</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>2.3</v>
@@ -4778,19 +4778,19 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S24" t="n">
         <v>1.37</v>
       </c>
       <c r="T24" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U24" t="n">
         <v>1.7</v>
@@ -4820,19 +4820,19 @@
         <v>8.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>13.5</v>
@@ -4841,10 +4841,10 @@
         <v>65</v>
       </c>
       <c r="AK24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL24" t="n">
         <v>37</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>400</v>
@@ -4856,7 +4856,7 @@
         <v>8.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4865,13 +4865,13 @@
         <v>60</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV24" t="n">
         <v>65</v>
@@ -4883,16 +4883,16 @@
         <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
         <v>120</v>
       </c>
       <c r="BA24" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
       </c>
       <c r="I25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J25" t="n">
         <v>2.67</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4960,25 +4960,25 @@
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
         <v>1.3</v>
       </c>
       <c r="T25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W25" t="n">
         <v>11</v>
@@ -4987,22 +4987,22 @@
         <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="n">
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -5011,37 +5011,37 @@
         <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
         <v>23</v>
       </c>
       <c r="AM25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR25" t="n">
         <v>60</v>
@@ -5050,7 +5050,7 @@
         <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU25" t="n">
         <v>6.6</v>
@@ -5059,22 +5059,22 @@
         <v>45</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA25" t="n">
         <v>75</v>
       </c>
       <c r="BB25" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="H26" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="J26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L26" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.3</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.47</v>
@@ -5151,112 +5151,112 @@
         <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AE26" t="n">
         <v>15.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
         <v>32</v>
       </c>
-      <c r="AK26" t="n">
-        <v>27</v>
-      </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>90</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="BA26" t="n">
         <v>150</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="BB26" t="n">
         <v>400</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>350</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,40 +771,40 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -822,19 +822,19 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,25 +846,25 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.38</v>
@@ -959,16 +959,16 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1851,28 +1851,28 @@
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
         <v>2.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>9.85</v>
+        <v>1.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.39</v>
@@ -1884,7 +1884,7 @@
         <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -1893,7 +1893,7 @@
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
@@ -1905,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.7</v>
@@ -1914,28 +1914,28 @@
         <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN8" t="n">
         <v>5.7</v>
@@ -1956,22 +1956,22 @@
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX8" t="n">
         <v>9.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>32</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
@@ -2224,7 +2224,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2290,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>19</v>
@@ -2308,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>67</v>
@@ -2332,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>2.5</v>
@@ -2961,10 +2961,10 @@
         <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2982,16 +2982,16 @@
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3018,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
@@ -4065,16 +4065,16 @@
         <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -4095,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4104,10 +4104,10 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -4125,16 +4125,16 @@
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4161,7 +4161,7 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
         <v>301</v>
@@ -4405,16 +4405,16 @@
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -4629,7 +4629,7 @@
         <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -4650,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>9.5</v>
@@ -4754,10 +4754,10 @@
         <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J24" t="n">
         <v>2.3</v>
@@ -4820,13 +4820,13 @@
         <v>8.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
@@ -4841,7 +4841,7 @@
         <v>65</v>
       </c>
       <c r="AK24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="n">
         <v>37</v>
@@ -4856,7 +4856,7 @@
         <v>8.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4871,7 +4871,7 @@
         <v>2.87</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV24" t="n">
         <v>65</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H26" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J26" t="n">
         <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.47</v>
@@ -5145,55 +5145,55 @@
         <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
         <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V26" t="n">
         <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z26" t="n">
         <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
@@ -5205,7 +5205,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
         <v>45</v>
@@ -5214,13 +5214,13 @@
         <v>900</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO26" t="n">
         <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
         <v>75</v>
@@ -5232,19 +5232,19 @@
         <v>350</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>26</v>
@@ -5253,7 +5253,7 @@
         <v>90</v>
       </c>
       <c r="BA26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB26" t="n">
         <v>400</v>
@@ -5300,10 +5300,10 @@
         <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -5351,10 +5351,10 @@
         <v>9</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
         <v>20</v>
@@ -5366,10 +5366,10 @@
         <v>6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
         <v>90</v>
@@ -5381,7 +5381,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>70</v>
@@ -5429,7 +5429,7 @@
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -959,16 +959,16 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -2227,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2427,22 +2427,22 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2451,40 +2451,40 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
         <v>7</v>
@@ -2499,7 +2499,7 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.75</v>
@@ -2508,22 +2508,22 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA11" t="n">
         <v>201</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>251</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -4751,19 +4751,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
         <v>4.45</v>
@@ -4793,40 +4793,40 @@
         <v>2.87</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8</v>
       </c>
-      <c r="X24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA24" t="n">
         <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC24" t="n">
         <v>8.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
@@ -4847,22 +4847,22 @@
         <v>37</v>
       </c>
       <c r="AM24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS24" t="n">
         <v>200</v>
@@ -4871,10 +4871,10 @@
         <v>2.87</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW24" t="n">
         <v>6</v>
@@ -4942,7 +4942,7 @@
         <v>2.77</v>
       </c>
       <c r="J25" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K25" t="n">
         <v>2.35</v>
@@ -4960,7 +4960,7 @@
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="Q25" t="n">
         <v>1.55</v>
@@ -4969,7 +4969,7 @@
         <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
         <v>3.25</v>
@@ -5002,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -5011,10 +5011,10 @@
         <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>10.5</v>
@@ -5023,13 +5023,13 @@
         <v>35</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
         <v>4.4</v>
@@ -5038,16 +5038,16 @@
         <v>10.75</v>
       </c>
       <c r="AP25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
         <v>37</v>
       </c>
       <c r="AR25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS25" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT25" t="n">
         <v>3.25</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J26" t="n">
         <v>3.35</v>
@@ -5136,19 +5136,19 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q26" t="n">
         <v>2.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
         <v>1.52</v>
@@ -5181,10 +5181,10 @@
         <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5214,7 +5214,7 @@
         <v>900</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO26" t="n">
         <v>15</v>
@@ -5235,10 +5235,10 @@
         <v>2.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW26" t="n">
         <v>4.65</v>
@@ -5256,7 +5256,7 @@
         <v>120</v>
       </c>
       <c r="BB26" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5297,34 +5297,34 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="K27" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="L27" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q27" t="n">
         <v>2.32</v>
@@ -5333,79 +5333,79 @@
         <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T27" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB27" t="n">
         <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
         <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
         <v>900</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR27" t="n">
         <v>90</v>
@@ -5414,25 +5414,25 @@
         <v>300</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV27" t="n">
         <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA27" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1848,13 +1848,13 @@
         <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
         <v>9.800000000000001</v>
@@ -1863,10 +1863,10 @@
         <v>1.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
         <v>1.78</v>
@@ -1884,16 +1884,16 @@
         <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>60</v>
@@ -1908,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" t="n">
         <v>13.5</v>
@@ -1917,7 +1917,7 @@
         <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>9.5</v>
@@ -1926,7 +1926,7 @@
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
@@ -1941,34 +1941,34 @@
         <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR8" t="n">
         <v>150</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>16.5</v>
@@ -1977,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4617,19 +4617,19 @@
         <v>2.5</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -4650,16 +4650,16 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK23" t="n">
         <v>15</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4668,7 +4668,7 @@
         <v>101</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
         <v>15</v>
@@ -4695,19 +4695,19 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA23" t="n">
         <v>41</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>51</v>
       </c>
       <c r="BB23" t="n">
         <v>101</v>
@@ -4716,7 +4716,7 @@
         <v>301</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -4939,7 +4939,7 @@
         <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
         <v>2.65</v>
@@ -4960,37 +4960,37 @@
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q25" t="n">
         <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S25" t="n">
         <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U25" t="n">
         <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W25" t="n">
         <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -5002,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -5011,10 +5011,10 @@
         <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
         <v>10.5</v>
@@ -5026,10 +5026,10 @@
         <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="n">
         <v>4.4</v>
@@ -5050,7 +5050,7 @@
         <v>150</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU25" t="n">
         <v>6.6</v>
@@ -5115,40 +5115,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="H26" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>1.85</v>
       </c>
       <c r="L26" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>5.9</v>
+        <v>6.78</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
         <v>1.52</v>
@@ -5166,25 +5166,25 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5193,40 +5193,40 @@
         <v>100</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
         <v>900</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS26" t="n">
         <v>350</v>
@@ -5235,28 +5235,28 @@
         <v>2.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB26" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>2.67</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K27" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L27" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="O27" t="n">
         <v>1.47</v>
@@ -5327,16 +5327,16 @@
         <v>2.35</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
         <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.9</v>
@@ -5345,13 +5345,13 @@
         <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>25</v>
@@ -5363,7 +5363,7 @@
         <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AD27" t="n">
         <v>5.3</v>
@@ -5375,16 +5375,16 @@
         <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="n">
         <v>40</v>
@@ -5396,13 +5396,13 @@
         <v>900</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
         <v>12.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>55</v>
@@ -5414,19 +5414,19 @@
         <v>300</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -959,16 +959,16 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -977,37 +977,37 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -1025,19 +1025,19 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1058,13 +1058,13 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="M8" t="n">
         <v>9.800000000000001</v>
@@ -1863,10 +1863,10 @@
         <v>1.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
         <v>1.78</v>
@@ -1881,37 +1881,37 @@
         <v>2.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
         <v>35</v>
       </c>
-      <c r="AB8" t="n">
-        <v>37</v>
-      </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD8" t="n">
         <v>6.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>55</v>
@@ -1920,16 +1920,16 @@
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI8" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
@@ -1938,22 +1938,22 @@
         <v>400</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR8" t="n">
         <v>120</v>
       </c>
-      <c r="AR8" t="n">
-        <v>150</v>
-      </c>
       <c r="AS8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
         <v>2.62</v>
@@ -1965,19 +1965,19 @@
         <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2427,10 +2427,10 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
@@ -2439,10 +2439,10 @@
         <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2454,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>23</v>
@@ -2505,13 +2505,13 @@
         <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
@@ -4593,10 +4593,10 @@
         <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.53</v>
@@ -4716,7 +4716,7 @@
         <v>301</v>
       </c>
       <c r="BD23" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4939,7 +4939,7 @@
         <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J25" t="n">
         <v>2.65</v>
@@ -4972,7 +4972,7 @@
         <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U25" t="n">
         <v>1.5</v>
@@ -4984,7 +4984,7 @@
         <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
@@ -5050,7 +5050,7 @@
         <v>150</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU25" t="n">
         <v>6.6</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I26" t="n">
         <v>3.1</v>
@@ -5130,7 +5130,7 @@
         <v>1.85</v>
       </c>
       <c r="L26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5151,10 +5151,10 @@
         <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
         <v>1.93</v>
@@ -5181,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD26" t="n">
         <v>5.4</v>
@@ -5196,7 +5196,7 @@
         <v>7.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>11.5</v>
@@ -5232,28 +5232,28 @@
         <v>350</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV26" t="n">
         <v>75</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AX26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
         <v>100</v>
       </c>
       <c r="BA26" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB26" t="n">
         <v>450</v>
@@ -5300,19 +5300,19 @@
         <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K27" t="n">
         <v>1.87</v>
       </c>
       <c r="L27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5333,28 +5333,28 @@
         <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
         <v>10.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
         <v>22</v>
@@ -5366,25 +5366,25 @@
         <v>6.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
         <v>90</v>
       </c>
       <c r="AG27" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
         <v>40</v>
@@ -5402,40 +5402,40 @@
         <v>12.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>55</v>
       </c>
       <c r="AR27" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS27" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
         <v>120</v>
       </c>
       <c r="BA27" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB27" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.5</v>
@@ -980,13 +980,13 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1010,10 +1010,10 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1022,13 +1022,13 @@
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1055,22 +1055,22 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>2.47</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>9.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
@@ -1869,10 +1869,10 @@
         <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
         <v>1.39</v>
@@ -1881,55 +1881,55 @@
         <v>2.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI8" t="n">
         <v>8</v>
       </c>
-      <c r="AH8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
@@ -1938,46 +1938,46 @@
         <v>400</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
         <v>1.14</v>
@@ -4605,25 +4605,25 @@
         <v>2.4</v>
       </c>
       <c r="S23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W23" t="n">
         <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
@@ -4635,7 +4635,7 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
         <v>7.5</v>
@@ -4662,7 +4662,7 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>101</v>
@@ -4671,13 +4671,13 @@
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4686,7 +4686,7 @@
         <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4710,7 +4710,7 @@
         <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
         <v>301</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="K27" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5321,73 +5321,73 @@
         <v>6.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
         <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="T27" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X27" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>22</v>
       </c>
       <c r="AB27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE27" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL27" t="n">
         <v>50</v>
@@ -5396,16 +5396,16 @@
         <v>900</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AO27" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR27" t="n">
         <v>100</v>
@@ -5414,25 +5414,25 @@
         <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA27" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1305,10 +1305,10 @@
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1329,10 +1329,10 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1398,40 +1398,40 @@
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
         <v>2.1</v>
@@ -4584,43 +4584,43 @@
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
         <v>1.25</v>
       </c>
       <c r="T23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
         <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -4671,7 +4671,7 @@
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4686,7 +4686,7 @@
         <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.85</v>
       </c>
       <c r="K27" t="n">
         <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>
@@ -5339,22 +5339,22 @@
         <v>2.32</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X27" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
         <v>22</v>
@@ -5363,7 +5363,7 @@
         <v>40</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD27" t="n">
         <v>5.8</v>
@@ -5375,19 +5375,19 @@
         <v>100</v>
       </c>
       <c r="AG27" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
         <v>50</v>
@@ -5396,16 +5396,16 @@
         <v>900</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR27" t="n">
         <v>100</v>
@@ -5417,22 +5417,22 @@
         <v>2.3</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV27" t="n">
         <v>75</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA27" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -4572,10 +4572,10 @@
         <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
         <v>3.5</v>
@@ -4605,7 +4605,7 @@
         <v>2.35</v>
       </c>
       <c r="S23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T23" t="n">
         <v>3.5</v>
@@ -4623,7 +4623,7 @@
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
@@ -4635,7 +4635,7 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
         <v>7.5</v>
@@ -4647,7 +4647,7 @@
         <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
@@ -4662,7 +4662,7 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>101</v>
@@ -4710,10 +4710,10 @@
         <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -5315,10 +5315,10 @@
         <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.1</v>
+        <v>7.15</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1335,10 +1335,10 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1374,10 +1374,10 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-13.xlsx
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
